--- a/Map1.xlsx
+++ b/Map1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="96">
   <si>
     <t>Pr</t>
   </si>
@@ -339,6 +339,380 @@
     </rPh>
     <rPh sb="92" eb="94">
       <t>ハンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Se</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペシャルエネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール始点</t>
+    <rPh sb="3" eb="5">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール終点</t>
+    <rPh sb="3" eb="5">
+      <t>シュウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポールと同じく、始点と終点がありその間に接触するとゴールになるフェンス（もしくはテープ）を展開する。
+マリオカートのように、ゴールした後もすぐに画面を切り替えず、プレイヤーがしばらくコース上を自動で進む。プレイヤーが勝手に進んでいる間にリザルト画面を表示し、600フレーム経過するとリザルト画面が終了しステージセレクト画面に移動する。</t>
+    <rPh sb="4" eb="5">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウテン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直進するエネミー弾は撃たない。
+プレイヤーの弾一発で死ぬ。
+倒すとスコアを100得る。</t>
+    <rPh sb="0" eb="2">
+      <t>チョクシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッパツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒すと手に入る点がとても高いエネミー、プレイヤーが弾を一発当てただけでは死なない。（固い敵）要調整！
+倒すとスコアを1000得る。</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イッパツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノーマルレーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースアウトを防ぐガードレールの通常版、当たり判定がありプレイヤーがぶつかると</t>
+    <rPh sb="7" eb="8">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -367,7 +741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,8 +760,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -849,13 +1235,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,6 +1409,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,18 +1739,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CA53"/>
+  <dimension ref="A1:DB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AZ33" sqref="AZ33"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CM19" sqref="CM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="35" max="35" width="3" customWidth="1"/>
     <col min="44" max="44" width="3.69921875" customWidth="1"/>
+    <col min="51" max="51" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -1303,24 +1763,27 @@
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="21"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="15"/>
+    <row r="2" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="21"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
@@ -1331,10 +1794,12 @@
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
       <c r="AD2" s="16"/>
-      <c r="AE2" s="17"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="15"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="16"/>
       <c r="AK2" s="16"/>
       <c r="AL2" s="16"/>
       <c r="AM2" s="16"/>
@@ -1345,217 +1810,519 @@
       <c r="AR2" s="16"/>
       <c r="AS2" s="16"/>
       <c r="AT2" s="16"/>
-      <c r="AU2" s="17"/>
-      <c r="BS2" s="25" t="s">
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="17"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="16"/>
+      <c r="BS2" s="16"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="16"/>
+      <c r="BW2" s="16"/>
+      <c r="BX2" s="16"/>
+      <c r="BY2" s="16"/>
+      <c r="BZ2" s="16"/>
+      <c r="CA2" s="16"/>
+      <c r="CB2" s="17"/>
+      <c r="CC2" s="21"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="16"/>
+      <c r="CG2" s="16"/>
+      <c r="CH2" s="16"/>
+      <c r="CI2" s="16"/>
+      <c r="CJ2" s="16"/>
+      <c r="CK2" s="16"/>
+      <c r="CL2" s="16"/>
+      <c r="CM2" s="16"/>
+      <c r="CN2" s="16"/>
+      <c r="CO2" s="16"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="16"/>
+      <c r="CR2" s="17"/>
+      <c r="CT2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="26"/>
-      <c r="BZ2" s="26"/>
-      <c r="CA2" s="27"/>
+      <c r="CU2" s="26"/>
+      <c r="CV2" s="26"/>
+      <c r="CW2" s="26"/>
+      <c r="CX2" s="26"/>
+      <c r="CY2" s="26"/>
+      <c r="CZ2" s="26"/>
+      <c r="DA2" s="26"/>
+      <c r="DB2" s="27"/>
     </row>
-    <row r="3" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="7"/>
-      <c r="C3" s="22">
+    <row r="3" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="55">
         <v>0</v>
       </c>
-      <c r="D3" s="18">
+      <c r="C3" s="59">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="D3" s="61">
         <v>2</v>
       </c>
-      <c r="F3" s="19">
+      <c r="E3" s="61">
         <v>3</v>
       </c>
-      <c r="G3" s="19">
+      <c r="F3" s="61">
         <v>4</v>
       </c>
-      <c r="H3" s="19">
+      <c r="G3" s="61">
         <v>5</v>
       </c>
-      <c r="I3" s="19">
+      <c r="H3" s="61">
         <v>6</v>
       </c>
-      <c r="J3" s="19">
+      <c r="I3" s="61">
         <v>7</v>
       </c>
-      <c r="K3" s="19">
+      <c r="J3" s="61">
         <v>8</v>
       </c>
-      <c r="L3" s="19">
+      <c r="K3" s="61">
         <v>9</v>
       </c>
-      <c r="M3" s="19">
+      <c r="L3" s="61">
         <v>10</v>
       </c>
-      <c r="N3" s="19">
+      <c r="M3" s="61">
         <v>11</v>
       </c>
-      <c r="O3" s="20">
+      <c r="N3" s="61">
         <v>12</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="22">
+      <c r="O3" s="61">
+        <v>13</v>
+      </c>
+      <c r="P3" s="60">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="22">
         <v>0</v>
       </c>
-      <c r="T3" s="18">
+      <c r="S3" s="63">
         <v>1</v>
       </c>
+      <c r="T3" s="19">
+        <v>2</v>
+      </c>
       <c r="U3" s="19">
+        <v>3</v>
+      </c>
+      <c r="V3" s="19">
+        <v>4</v>
+      </c>
+      <c r="W3" s="19">
+        <v>5</v>
+      </c>
+      <c r="X3" s="19">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="19">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="19">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="19">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="20">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="55">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="19">
         <v>2</v>
       </c>
-      <c r="V3" s="19">
+      <c r="AK3" s="19">
         <v>3</v>
       </c>
-      <c r="W3" s="19">
+      <c r="AL3" s="19">
         <v>4</v>
       </c>
-      <c r="X3" s="19">
+      <c r="AM3" s="19">
         <v>5</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="AN3" s="19">
         <v>6</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="AO3" s="19">
         <v>7</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AP3" s="19">
         <v>8</v>
       </c>
-      <c r="AB3" s="19">
+      <c r="AQ3" s="19">
         <v>9</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AR3" s="19">
         <v>10</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AS3" s="19">
         <v>11</v>
       </c>
-      <c r="AE3" s="20">
+      <c r="AT3" s="19">
         <v>12</v>
       </c>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="22">
+      <c r="AU3" s="19">
+        <v>13</v>
+      </c>
+      <c r="AV3" s="20">
+        <v>14</v>
+      </c>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="22">
         <v>0</v>
       </c>
-      <c r="AJ3" s="18">
+      <c r="AY3" s="18">
         <v>1</v>
       </c>
-      <c r="AK3" s="19">
+      <c r="AZ3" s="19">
         <v>2</v>
       </c>
-      <c r="AL3" s="19">
+      <c r="BA3" s="19">
         <v>3</v>
       </c>
-      <c r="AM3" s="19">
+      <c r="BB3" s="19">
         <v>4</v>
       </c>
-      <c r="AN3" s="19">
+      <c r="BC3" s="19">
         <v>5</v>
       </c>
-      <c r="AO3" s="19">
+      <c r="BD3" s="19">
         <v>6</v>
       </c>
-      <c r="AP3" s="19">
+      <c r="BE3" s="19">
         <v>7</v>
       </c>
-      <c r="AQ3" s="19">
+      <c r="BF3" s="19">
         <v>8</v>
       </c>
-      <c r="AR3" s="19">
+      <c r="BG3" s="19">
         <v>9</v>
       </c>
-      <c r="AS3" s="19">
+      <c r="BH3" s="19">
         <v>10</v>
       </c>
-      <c r="AT3" s="19">
+      <c r="BI3" s="19">
         <v>11</v>
       </c>
-      <c r="AU3" s="20">
+      <c r="BJ3" s="19">
         <v>12</v>
       </c>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="3"/>
+      <c r="BK3" s="19">
+        <v>13</v>
+      </c>
+      <c r="BL3" s="20">
+        <v>14</v>
+      </c>
+      <c r="BM3" s="7"/>
+      <c r="BN3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="18">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="19">
+        <v>2</v>
+      </c>
+      <c r="BQ3" s="19">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="19">
+        <v>4</v>
+      </c>
+      <c r="BS3" s="19">
+        <v>5</v>
+      </c>
+      <c r="BT3" s="19">
+        <v>6</v>
+      </c>
+      <c r="BU3" s="19">
+        <v>7</v>
+      </c>
+      <c r="BV3" s="19">
+        <v>8</v>
+      </c>
+      <c r="BW3" s="19">
+        <v>9</v>
+      </c>
+      <c r="BX3" s="19">
+        <v>10</v>
+      </c>
+      <c r="BY3" s="19">
+        <v>11</v>
+      </c>
+      <c r="BZ3" s="19">
+        <v>12</v>
+      </c>
+      <c r="CA3" s="19">
+        <v>13</v>
+      </c>
+      <c r="CB3" s="20">
+        <v>14</v>
+      </c>
+      <c r="CC3" s="7"/>
+      <c r="CD3" s="22">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="18">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="19">
+        <v>2</v>
+      </c>
+      <c r="CG3" s="19">
+        <v>3</v>
+      </c>
+      <c r="CH3" s="19">
+        <v>4</v>
+      </c>
+      <c r="CI3" s="19">
+        <v>5</v>
+      </c>
+      <c r="CJ3" s="19">
+        <v>6</v>
+      </c>
+      <c r="CK3" s="19">
+        <v>7</v>
+      </c>
+      <c r="CL3" s="19">
+        <v>8</v>
+      </c>
+      <c r="CM3" s="19">
+        <v>9</v>
+      </c>
+      <c r="CN3" s="19">
+        <v>10</v>
+      </c>
+      <c r="CO3" s="19">
+        <v>11</v>
+      </c>
+      <c r="CP3" s="19">
+        <v>12</v>
+      </c>
+      <c r="CQ3" s="19">
+        <v>13</v>
+      </c>
+      <c r="CR3" s="20">
+        <v>14</v>
+      </c>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="2"/>
+      <c r="CV3" s="2"/>
+      <c r="CW3" s="2"/>
+      <c r="CX3" s="2"/>
+      <c r="CY3" s="2"/>
+      <c r="CZ3" s="2"/>
+      <c r="DA3" s="2"/>
+      <c r="DB3" s="3"/>
     </row>
-    <row r="4" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="11"/>
-      <c r="C4" s="13">
+    <row r="4" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="13">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="13">
         <v>36</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="3"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="13">
+      <c r="S4" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="13">
         <v>71</v>
       </c>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="3"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5" t="s">
+      <c r="AI4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="13">
+        <v>106</v>
+      </c>
+      <c r="AY4" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM4" s="11"/>
+      <c r="BN4" s="13">
+        <v>141</v>
+      </c>
+      <c r="BO4" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP4" s="50"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="51"/>
+      <c r="BV4" s="51"/>
+      <c r="BW4" s="51"/>
+      <c r="BX4" s="51"/>
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="52"/>
+      <c r="CB4" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC4" s="11"/>
+      <c r="CD4" s="13">
+        <v>176</v>
+      </c>
+      <c r="CE4" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF4" s="50"/>
+      <c r="CG4" s="51"/>
+      <c r="CH4" s="51"/>
+      <c r="CI4" s="51"/>
+      <c r="CJ4" s="51"/>
+      <c r="CK4" s="51"/>
+      <c r="CL4" s="51"/>
+      <c r="CM4" s="51"/>
+      <c r="CN4" s="51"/>
+      <c r="CO4" s="51"/>
+      <c r="CP4" s="51"/>
+      <c r="CQ4" s="52"/>
+      <c r="CR4" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="6"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="6"/>
     </row>
-    <row r="5" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="12"/>
-      <c r="C5" s="14">
+    <row r="5" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14">
         <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -1569,9 +2336,15 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="13">
+      <c r="P5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="13">
         <v>37</v>
+      </c>
+      <c r="S5" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="5"/>
@@ -1585,9 +2358,15 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="6"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="13">
+      <c r="AF5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="13">
         <v>72</v>
+      </c>
+      <c r="AI5" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="5"/>
@@ -1601,24 +2380,100 @@
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
       <c r="AU5" s="6"/>
-      <c r="BS5" s="4"/>
-      <c r="BT5" s="5" t="s">
+      <c r="AV5" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="13">
+        <v>107</v>
+      </c>
+      <c r="AY5" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL5" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM5" s="11"/>
+      <c r="BN5" s="13">
+        <v>142</v>
+      </c>
+      <c r="BO5" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="28"/>
+      <c r="BR5" s="28"/>
+      <c r="BS5" s="28"/>
+      <c r="BT5" s="28"/>
+      <c r="BU5" s="28"/>
+      <c r="BV5" s="28"/>
+      <c r="BW5" s="28"/>
+      <c r="BX5" s="28"/>
+      <c r="BY5" s="28"/>
+      <c r="BZ5" s="28"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="13">
+        <v>177</v>
+      </c>
+      <c r="CE5" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF5" s="38"/>
+      <c r="CG5" s="28"/>
+      <c r="CH5" s="28"/>
+      <c r="CI5" s="28"/>
+      <c r="CJ5" s="28"/>
+      <c r="CK5" s="28"/>
+      <c r="CL5" s="28"/>
+      <c r="CM5" s="28"/>
+      <c r="CN5" s="28"/>
+      <c r="CO5" s="28"/>
+      <c r="CP5" s="28"/>
+      <c r="CQ5" s="33"/>
+      <c r="CR5" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CT5" s="4"/>
+      <c r="CU5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BU5" s="23"/>
-      <c r="BV5" s="5"/>
-      <c r="BW5" s="5" t="s">
+      <c r="CV5" s="23"/>
+      <c r="CW5" s="5"/>
+      <c r="CX5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BX5" s="5"/>
-      <c r="BY5" s="5"/>
-      <c r="BZ5" s="5"/>
-      <c r="CA5" s="6"/>
+      <c r="CY5" s="5"/>
+      <c r="CZ5" s="5"/>
+      <c r="DA5" s="5"/>
+      <c r="DB5" s="6"/>
     </row>
-    <row r="6" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="12"/>
-      <c r="C6" s="14">
+    <row r="6" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14">
         <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -1632,9 +2487,15 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="13">
+      <c r="P6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="13">
         <v>38</v>
+      </c>
+      <c r="S6" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="5"/>
@@ -1648,9 +2509,15 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="6"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="13">
+      <c r="AF6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="13">
         <v>73</v>
+      </c>
+      <c r="AI6" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="5"/>
@@ -1664,20 +2531,96 @@
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
       <c r="AU6" s="6"/>
-      <c r="BS6" s="4"/>
-      <c r="BT6" s="5"/>
-      <c r="BU6" s="24"/>
-      <c r="BV6" s="5"/>
-      <c r="BW6" s="5"/>
-      <c r="BX6" s="5"/>
-      <c r="BY6" s="5"/>
-      <c r="BZ6" s="5"/>
-      <c r="CA6" s="6"/>
+      <c r="AV6" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="13">
+        <v>108</v>
+      </c>
+      <c r="AY6" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="28"/>
+      <c r="BB6" s="28"/>
+      <c r="BC6" s="28"/>
+      <c r="BD6" s="28"/>
+      <c r="BE6" s="28"/>
+      <c r="BF6" s="28"/>
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="28"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="33"/>
+      <c r="BL6" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM6" s="11"/>
+      <c r="BN6" s="13">
+        <v>143</v>
+      </c>
+      <c r="BO6" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP6" s="38"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
+      <c r="BS6" s="28"/>
+      <c r="BT6" s="28"/>
+      <c r="BU6" s="28"/>
+      <c r="BV6" s="28"/>
+      <c r="BW6" s="28"/>
+      <c r="BX6" s="28"/>
+      <c r="BY6" s="28"/>
+      <c r="BZ6" s="28"/>
+      <c r="CA6" s="33"/>
+      <c r="CB6" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC6" s="11"/>
+      <c r="CD6" s="13">
+        <v>178</v>
+      </c>
+      <c r="CE6" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF6" s="38"/>
+      <c r="CG6" s="28"/>
+      <c r="CH6" s="28"/>
+      <c r="CI6" s="28"/>
+      <c r="CJ6" s="28"/>
+      <c r="CK6" s="28"/>
+      <c r="CL6" s="28"/>
+      <c r="CM6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="CN6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="CO6" s="28"/>
+      <c r="CP6" s="28"/>
+      <c r="CQ6" s="33"/>
+      <c r="CR6" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CT6" s="4"/>
+      <c r="CU6" s="5"/>
+      <c r="CV6" s="24"/>
+      <c r="CW6" s="5"/>
+      <c r="CX6" s="5"/>
+      <c r="CY6" s="5"/>
+      <c r="CZ6" s="5"/>
+      <c r="DA6" s="5"/>
+      <c r="DB6" s="6"/>
     </row>
-    <row r="7" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="12"/>
-      <c r="C7" s="14">
+    <row r="7" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14">
         <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -1691,9 +2634,15 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="13">
+      <c r="P7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="13">
         <v>39</v>
+      </c>
+      <c r="S7" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="5"/>
@@ -1707,9 +2656,15 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="6"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="13">
+      <c r="AF7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="13">
         <v>74</v>
+      </c>
+      <c r="AI7" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="5"/>
@@ -1733,20 +2688,98 @@
       <c r="AU7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="BS7" s="7"/>
-      <c r="BT7" s="8"/>
-      <c r="BU7" s="8"/>
-      <c r="BV7" s="8"/>
-      <c r="BW7" s="8"/>
-      <c r="BX7" s="8"/>
-      <c r="BY7" s="8"/>
-      <c r="BZ7" s="8"/>
-      <c r="CA7" s="9"/>
+      <c r="AV7" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="13">
+        <v>109</v>
+      </c>
+      <c r="AY7" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
+      <c r="BD7" s="28"/>
+      <c r="BE7" s="28"/>
+      <c r="BF7" s="28"/>
+      <c r="BG7" s="28"/>
+      <c r="BH7" s="28"/>
+      <c r="BI7" s="28"/>
+      <c r="BJ7" s="28"/>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM7" s="11"/>
+      <c r="BN7" s="13">
+        <v>144</v>
+      </c>
+      <c r="BO7" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP7" s="38"/>
+      <c r="BQ7" s="28"/>
+      <c r="BR7" s="28"/>
+      <c r="BS7" s="28"/>
+      <c r="BT7" s="28"/>
+      <c r="BU7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="BV7" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="BW7" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX7" s="28"/>
+      <c r="BY7" s="28"/>
+      <c r="BZ7" s="28"/>
+      <c r="CA7" s="33"/>
+      <c r="CB7" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC7" s="11"/>
+      <c r="CD7" s="13">
+        <v>179</v>
+      </c>
+      <c r="CE7" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF7" s="38"/>
+      <c r="CG7" s="28"/>
+      <c r="CH7" s="28"/>
+      <c r="CI7" s="28"/>
+      <c r="CJ7" s="28"/>
+      <c r="CK7" s="28"/>
+      <c r="CL7" s="28"/>
+      <c r="CM7" s="28"/>
+      <c r="CN7" s="28"/>
+      <c r="CO7" s="28"/>
+      <c r="CP7" s="28"/>
+      <c r="CQ7" s="33"/>
+      <c r="CR7" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CT7" s="7"/>
+      <c r="CU7" s="8"/>
+      <c r="CV7" s="8"/>
+      <c r="CW7" s="8"/>
+      <c r="CX7" s="8"/>
+      <c r="CY7" s="8"/>
+      <c r="CZ7" s="8"/>
+      <c r="DA7" s="8"/>
+      <c r="DB7" s="9"/>
     </row>
-    <row r="8" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="12"/>
-      <c r="C8" s="14">
+    <row r="8" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14">
         <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -1760,9 +2793,15 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="13">
+      <c r="P8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="13">
         <v>40</v>
+      </c>
+      <c r="S8" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
@@ -1776,9 +2815,15 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="6"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="13">
+      <c r="AF8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="13">
         <v>75</v>
+      </c>
+      <c r="AI8" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ8" s="4" t="s">
         <v>16</v>
@@ -1796,11 +2841,83 @@
       <c r="AS8" s="28"/>
       <c r="AT8" s="28"/>
       <c r="AU8" s="6"/>
+      <c r="AV8" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="13">
+        <v>110</v>
+      </c>
+      <c r="AY8" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="28"/>
+      <c r="BD8" s="28"/>
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="28"/>
+      <c r="BG8" s="28"/>
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM8" s="11"/>
+      <c r="BN8" s="13">
+        <v>145</v>
+      </c>
+      <c r="BO8" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP8" s="38"/>
+      <c r="BQ8" s="28"/>
+      <c r="BR8" s="28"/>
+      <c r="BS8" s="28"/>
+      <c r="BT8" s="28"/>
+      <c r="BU8" s="28"/>
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="28"/>
+      <c r="BY8" s="28"/>
+      <c r="BZ8" s="28"/>
+      <c r="CA8" s="33"/>
+      <c r="CB8" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC8" s="11"/>
+      <c r="CD8" s="13">
+        <v>180</v>
+      </c>
+      <c r="CE8" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF8" s="38"/>
+      <c r="CG8" s="28"/>
+      <c r="CH8" s="28"/>
+      <c r="CI8" s="28"/>
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="28"/>
+      <c r="CL8" s="28"/>
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="28"/>
+      <c r="CO8" s="28"/>
+      <c r="CP8" s="28"/>
+      <c r="CQ8" s="33"/>
+      <c r="CR8" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="9" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="12"/>
-      <c r="C9" s="14">
+    <row r="9" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14">
         <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -1814,9 +2931,15 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="13">
+      <c r="P9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="13">
         <v>41</v>
+      </c>
+      <c r="S9" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="5"/>
@@ -1830,9 +2953,15 @@
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="6"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="13">
+      <c r="AF9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="13">
         <v>76</v>
+      </c>
+      <c r="AI9" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="5"/>
@@ -1846,11 +2975,83 @@
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
       <c r="AU9" s="6"/>
+      <c r="AV9" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="13">
+        <v>111</v>
+      </c>
+      <c r="AY9" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="28"/>
+      <c r="BB9" s="28"/>
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="28"/>
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="28"/>
+      <c r="BG9" s="28"/>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28"/>
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM9" s="11"/>
+      <c r="BN9" s="13">
+        <v>146</v>
+      </c>
+      <c r="BO9" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28"/>
+      <c r="BS9" s="28"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="28"/>
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="28"/>
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="28"/>
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC9" s="11"/>
+      <c r="CD9" s="13">
+        <v>181</v>
+      </c>
+      <c r="CE9" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="28"/>
+      <c r="CH9" s="28"/>
+      <c r="CI9" s="28"/>
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="28"/>
+      <c r="CL9" s="28"/>
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="28"/>
+      <c r="CP9" s="28"/>
+      <c r="CQ9" s="33"/>
+      <c r="CR9" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="10" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="12"/>
-      <c r="C10" s="14">
+    <row r="10" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14">
         <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -1868,9 +3069,15 @@
       <c r="O10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="13">
+      <c r="P10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="13">
         <v>42</v>
+      </c>
+      <c r="S10" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>7</v>
@@ -1892,9 +3099,15 @@
       <c r="AE10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="13">
+      <c r="AF10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="13">
         <v>77</v>
+      </c>
+      <c r="AI10" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="28"/>
@@ -1908,11 +3121,113 @@
       <c r="AS10" s="28"/>
       <c r="AT10" s="28"/>
       <c r="AU10" s="6"/>
+      <c r="AV10" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="13">
+        <v>112</v>
+      </c>
+      <c r="AY10" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI10" s="28"/>
+      <c r="BJ10" s="28"/>
+      <c r="BK10" s="33"/>
+      <c r="BL10" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM10" s="11"/>
+      <c r="BN10" s="13">
+        <v>147</v>
+      </c>
+      <c r="BO10" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP10" s="38"/>
+      <c r="BQ10" s="28"/>
+      <c r="BR10" s="28"/>
+      <c r="BS10" s="28"/>
+      <c r="BT10" s="28"/>
+      <c r="BU10" s="28"/>
+      <c r="BV10" s="28"/>
+      <c r="BW10" s="28"/>
+      <c r="BX10" s="28"/>
+      <c r="BY10" s="28"/>
+      <c r="BZ10" s="28"/>
+      <c r="CA10" s="33"/>
+      <c r="CB10" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC10" s="11"/>
+      <c r="CD10" s="13">
+        <v>182</v>
+      </c>
+      <c r="CE10" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="CG10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="CH10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="CI10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="CJ10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="CK10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="CL10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="CM10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="CN10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="CO10" s="28"/>
+      <c r="CP10" s="28"/>
+      <c r="CQ10" s="33"/>
+      <c r="CR10" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="11" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="12"/>
-      <c r="C11" s="14">
+    <row r="11" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14">
         <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -1926,9 +3241,15 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="6"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="13">
+      <c r="P11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="13">
         <v>43</v>
+      </c>
+      <c r="S11" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="5"/>
@@ -1942,9 +3263,15 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="6"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="13">
+      <c r="AF11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="13">
         <v>78</v>
+      </c>
+      <c r="AI11" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="28"/>
@@ -1958,11 +3285,87 @@
       <c r="AS11" s="28"/>
       <c r="AT11" s="28"/>
       <c r="AU11" s="6"/>
+      <c r="AV11" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="13">
+        <v>113</v>
+      </c>
+      <c r="AY11" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ11" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="10"/>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="10"/>
+      <c r="BK11" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL11" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM11" s="11"/>
+      <c r="BN11" s="13">
+        <v>148</v>
+      </c>
+      <c r="BO11" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP11" s="38"/>
+      <c r="BQ11" s="28"/>
+      <c r="BR11" s="28"/>
+      <c r="BS11" s="28"/>
+      <c r="BT11" s="28"/>
+      <c r="BU11" s="28"/>
+      <c r="BV11" s="28"/>
+      <c r="BW11" s="28"/>
+      <c r="BX11" s="28"/>
+      <c r="BY11" s="28"/>
+      <c r="BZ11" s="28"/>
+      <c r="CA11" s="33"/>
+      <c r="CB11" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC11" s="11"/>
+      <c r="CD11" s="13">
+        <v>183</v>
+      </c>
+      <c r="CE11" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF11" s="38"/>
+      <c r="CG11" s="28"/>
+      <c r="CH11" s="28"/>
+      <c r="CI11" s="28"/>
+      <c r="CJ11" s="28"/>
+      <c r="CK11" s="28"/>
+      <c r="CL11" s="28"/>
+      <c r="CM11" s="28"/>
+      <c r="CN11" s="28"/>
+      <c r="CO11" s="28"/>
+      <c r="CP11" s="28"/>
+      <c r="CQ11" s="33"/>
+      <c r="CR11" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="12" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="12"/>
-      <c r="C12" s="14">
+    <row r="12" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="14">
         <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -1976,9 +3379,15 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="13">
+      <c r="P12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="13">
         <v>44</v>
+      </c>
+      <c r="S12" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="5"/>
@@ -1992,9 +3401,15 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="6"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="13">
+      <c r="AF12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="13">
         <v>79</v>
+      </c>
+      <c r="AI12" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="28"/>
@@ -2008,11 +3423,83 @@
       <c r="AS12" s="28"/>
       <c r="AT12" s="28"/>
       <c r="AU12" s="6"/>
+      <c r="AV12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="13">
+        <v>114</v>
+      </c>
+      <c r="AY12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="28"/>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="28"/>
+      <c r="BD12" s="28"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="28"/>
+      <c r="BG12" s="28"/>
+      <c r="BH12" s="28"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="28"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM12" s="11"/>
+      <c r="BN12" s="13">
+        <v>149</v>
+      </c>
+      <c r="BO12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP12" s="38"/>
+      <c r="BQ12" s="28"/>
+      <c r="BR12" s="28"/>
+      <c r="BS12" s="28"/>
+      <c r="BT12" s="28"/>
+      <c r="BU12" s="28"/>
+      <c r="BV12" s="28"/>
+      <c r="BW12" s="28"/>
+      <c r="BX12" s="28"/>
+      <c r="BY12" s="28"/>
+      <c r="BZ12" s="28"/>
+      <c r="CA12" s="33"/>
+      <c r="CB12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC12" s="11"/>
+      <c r="CD12" s="13">
+        <v>184</v>
+      </c>
+      <c r="CE12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF12" s="38"/>
+      <c r="CG12" s="28"/>
+      <c r="CH12" s="28"/>
+      <c r="CI12" s="28"/>
+      <c r="CJ12" s="28"/>
+      <c r="CK12" s="28"/>
+      <c r="CL12" s="28"/>
+      <c r="CM12" s="28"/>
+      <c r="CN12" s="28"/>
+      <c r="CO12" s="28"/>
+      <c r="CP12" s="28"/>
+      <c r="CQ12" s="33"/>
+      <c r="CR12" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="13" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="12"/>
-      <c r="C13" s="14">
+    <row r="13" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14">
         <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -2026,9 +3513,15 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="13">
+      <c r="P13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="13">
         <v>45</v>
+      </c>
+      <c r="S13" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="5"/>
@@ -2042,9 +3535,15 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="6"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="37">
+      <c r="AF13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="37">
         <v>80</v>
+      </c>
+      <c r="AI13" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="5"/>
@@ -2058,11 +3557,89 @@
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
       <c r="AU13" s="6"/>
+      <c r="AV13" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="13">
+        <v>115</v>
+      </c>
+      <c r="AY13" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="28"/>
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="28"/>
+      <c r="BG13" s="28"/>
+      <c r="BH13" s="28"/>
+      <c r="BI13" s="28"/>
+      <c r="BJ13" s="28"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM13" s="36"/>
+      <c r="BN13" s="13">
+        <v>150</v>
+      </c>
+      <c r="BO13" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP13" s="38"/>
+      <c r="BQ13" s="28"/>
+      <c r="BR13" s="28"/>
+      <c r="BS13" s="28"/>
+      <c r="BT13" s="28"/>
+      <c r="BU13" s="28"/>
+      <c r="BV13" s="28"/>
+      <c r="BW13" s="28"/>
+      <c r="BX13" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY13" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BZ13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA13" s="33"/>
+      <c r="CB13" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC13" s="36"/>
+      <c r="CD13" s="13">
+        <v>185</v>
+      </c>
+      <c r="CE13" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF13" s="38"/>
+      <c r="CG13" s="28"/>
+      <c r="CH13" s="28"/>
+      <c r="CI13" s="28"/>
+      <c r="CJ13" s="28"/>
+      <c r="CK13" s="28"/>
+      <c r="CL13" s="28"/>
+      <c r="CM13" s="28"/>
+      <c r="CN13" s="28"/>
+      <c r="CO13" s="28"/>
+      <c r="CP13" s="28"/>
+      <c r="CQ13" s="33"/>
+      <c r="CR13" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="14" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="12"/>
-      <c r="C14" s="14">
+    <row r="14" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14">
         <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -2076,9 +3653,15 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="13">
+      <c r="P14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="13">
         <v>46</v>
+      </c>
+      <c r="S14" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
@@ -2092,9 +3675,15 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="6"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="13">
+      <c r="AF14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="13">
         <v>81</v>
+      </c>
+      <c r="AI14" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="5"/>
@@ -2108,11 +3697,83 @@
       <c r="AS14" s="5"/>
       <c r="AT14" s="5"/>
       <c r="AU14" s="6"/>
+      <c r="AV14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="13">
+        <v>116</v>
+      </c>
+      <c r="AY14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="28"/>
+      <c r="BF14" s="28"/>
+      <c r="BG14" s="28"/>
+      <c r="BH14" s="28"/>
+      <c r="BI14" s="28"/>
+      <c r="BJ14" s="28"/>
+      <c r="BK14" s="33"/>
+      <c r="BL14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM14" s="11"/>
+      <c r="BN14" s="13">
+        <v>151</v>
+      </c>
+      <c r="BO14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP14" s="38"/>
+      <c r="BQ14" s="28"/>
+      <c r="BR14" s="28"/>
+      <c r="BS14" s="28"/>
+      <c r="BT14" s="28"/>
+      <c r="BU14" s="28"/>
+      <c r="BV14" s="28"/>
+      <c r="BW14" s="28"/>
+      <c r="BX14" s="28"/>
+      <c r="BY14" s="28"/>
+      <c r="BZ14" s="28"/>
+      <c r="CA14" s="33"/>
+      <c r="CB14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC14" s="11"/>
+      <c r="CD14" s="13">
+        <v>186</v>
+      </c>
+      <c r="CE14" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF14" s="38"/>
+      <c r="CG14" s="28"/>
+      <c r="CH14" s="28"/>
+      <c r="CI14" s="28"/>
+      <c r="CJ14" s="28"/>
+      <c r="CK14" s="28"/>
+      <c r="CL14" s="28"/>
+      <c r="CM14" s="28"/>
+      <c r="CN14" s="28"/>
+      <c r="CO14" s="28"/>
+      <c r="CP14" s="28"/>
+      <c r="CQ14" s="33"/>
+      <c r="CR14" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="15" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="12"/>
-      <c r="C15" s="14">
+    <row r="15" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14">
         <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -2126,9 +3787,15 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="13">
+      <c r="P15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="13">
         <v>47</v>
+      </c>
+      <c r="S15" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>36</v>
@@ -2150,9 +3817,15 @@
       <c r="AE15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="13">
+      <c r="AF15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="13">
         <v>82</v>
+      </c>
+      <c r="AI15" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ15" s="38" t="s">
         <v>22</v>
@@ -2176,11 +3849,91 @@
       <c r="AS15" s="28"/>
       <c r="AT15" s="28"/>
       <c r="AU15" s="6"/>
+      <c r="AV15" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="13">
+        <v>117</v>
+      </c>
+      <c r="AY15" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH15" s="28"/>
+      <c r="BI15" s="28"/>
+      <c r="BJ15" s="28"/>
+      <c r="BK15" s="33"/>
+      <c r="BL15" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM15" s="11"/>
+      <c r="BN15" s="13">
+        <v>152</v>
+      </c>
+      <c r="BO15" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP15" s="38"/>
+      <c r="BQ15" s="28"/>
+      <c r="BR15" s="28"/>
+      <c r="BS15" s="28"/>
+      <c r="BT15" s="28"/>
+      <c r="BU15" s="28"/>
+      <c r="BV15" s="28"/>
+      <c r="BW15" s="28"/>
+      <c r="BX15" s="28"/>
+      <c r="BY15" s="28"/>
+      <c r="BZ15" s="28"/>
+      <c r="CA15" s="33"/>
+      <c r="CB15" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC15" s="11"/>
+      <c r="CD15" s="13">
+        <v>187</v>
+      </c>
+      <c r="CE15" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF15" s="38"/>
+      <c r="CG15" s="28"/>
+      <c r="CH15" s="28"/>
+      <c r="CI15" s="28"/>
+      <c r="CJ15" s="28"/>
+      <c r="CK15" s="28"/>
+      <c r="CL15" s="28"/>
+      <c r="CM15" s="28"/>
+      <c r="CN15" s="28"/>
+      <c r="CO15" s="28"/>
+      <c r="CP15" s="28"/>
+      <c r="CQ15" s="33"/>
+      <c r="CR15" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="16" spans="2:79" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="12"/>
-      <c r="C16" s="14">
+    <row r="16" spans="1:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14">
         <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -2194,9 +3947,15 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="13">
+      <c r="P16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="13">
         <v>48</v>
+      </c>
+      <c r="S16" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="5"/>
@@ -2210,9 +3969,15 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="6"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="13">
+      <c r="AF16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="13">
         <v>83</v>
+      </c>
+      <c r="AI16" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="28"/>
@@ -2230,11 +3995,105 @@
       <c r="AU16" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="AV16" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="13">
+        <v>118</v>
+      </c>
+      <c r="AY16" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ16" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL16" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM16" s="11"/>
+      <c r="BN16" s="13">
+        <v>153</v>
+      </c>
+      <c r="BO16" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP16" s="38"/>
+      <c r="BQ16" s="28"/>
+      <c r="BR16" s="28"/>
+      <c r="BS16" s="28"/>
+      <c r="BT16" s="28"/>
+      <c r="BU16" s="28"/>
+      <c r="BV16" s="28"/>
+      <c r="BW16" s="28"/>
+      <c r="BX16" s="28"/>
+      <c r="BY16" s="28"/>
+      <c r="BZ16" s="28"/>
+      <c r="CA16" s="33"/>
+      <c r="CB16" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC16" s="11"/>
+      <c r="CD16" s="13">
+        <v>188</v>
+      </c>
+      <c r="CE16" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF16" s="38"/>
+      <c r="CG16" s="28"/>
+      <c r="CH16" s="28"/>
+      <c r="CI16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="CJ16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="CK16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="CL16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="CM16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="CN16" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="CO16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="CP16" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="CQ16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="CR16" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="17" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="12"/>
-      <c r="C17" s="14">
+    <row r="17" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14">
         <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>34</v>
@@ -2252,9 +4111,15 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="13">
+      <c r="P17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="13">
         <v>49</v>
+      </c>
+      <c r="S17" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="28"/>
@@ -2268,9 +4133,15 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="6"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="13">
+      <c r="AF17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="13">
         <v>84</v>
+      </c>
+      <c r="AI17" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="28"/>
@@ -2284,11 +4155,83 @@
       <c r="AS17" s="28"/>
       <c r="AT17" s="28"/>
       <c r="AU17" s="6"/>
+      <c r="AV17" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="13">
+        <v>119</v>
+      </c>
+      <c r="AY17" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ17" s="38"/>
+      <c r="BA17" s="28"/>
+      <c r="BB17" s="28"/>
+      <c r="BC17" s="28"/>
+      <c r="BD17" s="28"/>
+      <c r="BE17" s="28"/>
+      <c r="BF17" s="28"/>
+      <c r="BG17" s="28"/>
+      <c r="BH17" s="28"/>
+      <c r="BI17" s="28"/>
+      <c r="BJ17" s="28"/>
+      <c r="BK17" s="33"/>
+      <c r="BL17" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM17" s="11"/>
+      <c r="BN17" s="13">
+        <v>154</v>
+      </c>
+      <c r="BO17" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP17" s="38"/>
+      <c r="BQ17" s="28"/>
+      <c r="BR17" s="28"/>
+      <c r="BS17" s="28"/>
+      <c r="BT17" s="28"/>
+      <c r="BU17" s="28"/>
+      <c r="BV17" s="28"/>
+      <c r="BW17" s="28"/>
+      <c r="BX17" s="28"/>
+      <c r="BY17" s="28"/>
+      <c r="BZ17" s="28"/>
+      <c r="CA17" s="33"/>
+      <c r="CB17" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC17" s="11"/>
+      <c r="CD17" s="13">
+        <v>189</v>
+      </c>
+      <c r="CE17" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF17" s="38"/>
+      <c r="CG17" s="28"/>
+      <c r="CH17" s="28"/>
+      <c r="CI17" s="28"/>
+      <c r="CJ17" s="28"/>
+      <c r="CK17" s="28"/>
+      <c r="CL17" s="28"/>
+      <c r="CM17" s="28"/>
+      <c r="CN17" s="28"/>
+      <c r="CO17" s="28"/>
+      <c r="CP17" s="28"/>
+      <c r="CQ17" s="33"/>
+      <c r="CR17" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="18" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="12"/>
-      <c r="C18" s="14">
+    <row r="18" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14">
         <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -2302,9 +4245,15 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="6"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="13">
+      <c r="P18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="13">
         <v>50</v>
+      </c>
+      <c r="S18" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T18" s="4"/>
       <c r="U18" s="5"/>
@@ -2318,9 +4267,15 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="6"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="13">
+      <c r="AF18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="13">
         <v>85</v>
+      </c>
+      <c r="AI18" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="5"/>
@@ -2334,11 +4289,89 @@
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
       <c r="AU18" s="6"/>
+      <c r="AV18" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="13">
+        <v>120</v>
+      </c>
+      <c r="AY18" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="28"/>
+      <c r="BB18" s="28"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="28"/>
+      <c r="BG18" s="28"/>
+      <c r="BH18" s="28"/>
+      <c r="BI18" s="28"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="33"/>
+      <c r="BL18" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM18" s="11"/>
+      <c r="BN18" s="13">
+        <v>155</v>
+      </c>
+      <c r="BO18" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP18" s="38"/>
+      <c r="BQ18" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="BR18" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="BS18" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT18" s="28"/>
+      <c r="BU18" s="28"/>
+      <c r="BV18" s="28"/>
+      <c r="BW18" s="28"/>
+      <c r="BX18" s="28"/>
+      <c r="BY18" s="28"/>
+      <c r="BZ18" s="28"/>
+      <c r="CA18" s="33"/>
+      <c r="CB18" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC18" s="11"/>
+      <c r="CD18" s="13">
+        <v>190</v>
+      </c>
+      <c r="CE18" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF18" s="38"/>
+      <c r="CG18" s="28"/>
+      <c r="CH18" s="28"/>
+      <c r="CI18" s="28"/>
+      <c r="CJ18" s="28"/>
+      <c r="CK18" s="28"/>
+      <c r="CL18" s="28"/>
+      <c r="CM18" s="28"/>
+      <c r="CN18" s="28"/>
+      <c r="CO18" s="28"/>
+      <c r="CP18" s="28"/>
+      <c r="CQ18" s="33"/>
+      <c r="CR18" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="19" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="12"/>
-      <c r="C19" s="14">
+    <row r="19" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14">
         <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -2352,9 +4385,15 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="13">
+      <c r="P19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="13">
         <v>51</v>
+      </c>
+      <c r="S19" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>38</v>
@@ -2376,9 +4415,15 @@
       <c r="AE19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="13">
+      <c r="AF19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="13">
         <v>86</v>
+      </c>
+      <c r="AI19" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="28"/>
@@ -2392,11 +4437,83 @@
       <c r="AS19" s="28"/>
       <c r="AT19" s="28"/>
       <c r="AU19" s="6"/>
+      <c r="AV19" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="13">
+        <v>121</v>
+      </c>
+      <c r="AY19" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="6"/>
+      <c r="BL19" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM19" s="11"/>
+      <c r="BN19" s="13">
+        <v>156</v>
+      </c>
+      <c r="BO19" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP19" s="38"/>
+      <c r="BQ19" s="28"/>
+      <c r="BR19" s="28"/>
+      <c r="BS19" s="28"/>
+      <c r="BT19" s="28"/>
+      <c r="BU19" s="28"/>
+      <c r="BV19" s="28"/>
+      <c r="BW19" s="28"/>
+      <c r="BX19" s="28"/>
+      <c r="BY19" s="28"/>
+      <c r="BZ19" s="28"/>
+      <c r="CA19" s="33"/>
+      <c r="CB19" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC19" s="11"/>
+      <c r="CD19" s="13">
+        <v>191</v>
+      </c>
+      <c r="CE19" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF19" s="38"/>
+      <c r="CG19" s="28"/>
+      <c r="CH19" s="28"/>
+      <c r="CI19" s="28"/>
+      <c r="CJ19" s="28"/>
+      <c r="CK19" s="28"/>
+      <c r="CL19" s="28"/>
+      <c r="CM19" s="28"/>
+      <c r="CN19" s="28"/>
+      <c r="CO19" s="28"/>
+      <c r="CP19" s="28"/>
+      <c r="CQ19" s="33"/>
+      <c r="CR19" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="20" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="12"/>
-      <c r="C20" s="14">
+    <row r="20" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14">
         <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -2410,9 +4527,15 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="6"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="13">
+      <c r="P20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="13">
         <v>52</v>
+      </c>
+      <c r="S20" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="5"/>
@@ -2426,9 +4549,15 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="6"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="13">
+      <c r="AF20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="13">
         <v>87</v>
+      </c>
+      <c r="AI20" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="5"/>
@@ -2442,11 +4571,87 @@
       <c r="AS20" s="5"/>
       <c r="AT20" s="5"/>
       <c r="AU20" s="6"/>
+      <c r="AV20" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="13">
+        <v>122</v>
+      </c>
+      <c r="AY20" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="28"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="28"/>
+      <c r="BE20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF20" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG20" s="28"/>
+      <c r="BH20" s="28"/>
+      <c r="BI20" s="28"/>
+      <c r="BJ20" s="28"/>
+      <c r="BK20" s="33"/>
+      <c r="BL20" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM20" s="11"/>
+      <c r="BN20" s="13">
+        <v>157</v>
+      </c>
+      <c r="BO20" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP20" s="38"/>
+      <c r="BQ20" s="28"/>
+      <c r="BR20" s="28"/>
+      <c r="BS20" s="28"/>
+      <c r="BT20" s="28"/>
+      <c r="BU20" s="28"/>
+      <c r="BV20" s="28"/>
+      <c r="BW20" s="28"/>
+      <c r="BX20" s="28"/>
+      <c r="BY20" s="28"/>
+      <c r="BZ20" s="28"/>
+      <c r="CA20" s="33"/>
+      <c r="CB20" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC20" s="11"/>
+      <c r="CD20" s="13">
+        <v>192</v>
+      </c>
+      <c r="CE20" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF20" s="38"/>
+      <c r="CG20" s="28"/>
+      <c r="CH20" s="28"/>
+      <c r="CI20" s="28"/>
+      <c r="CJ20" s="28"/>
+      <c r="CK20" s="28"/>
+      <c r="CL20" s="28"/>
+      <c r="CM20" s="28"/>
+      <c r="CN20" s="28"/>
+      <c r="CO20" s="28"/>
+      <c r="CP20" s="28"/>
+      <c r="CQ20" s="33"/>
+      <c r="CR20" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="21" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="12"/>
-      <c r="C21" s="14">
+    <row r="21" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="12"/>
+      <c r="B21" s="14">
         <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -2460,9 +4665,15 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="6"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="13">
+      <c r="P21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="13">
         <v>53</v>
+      </c>
+      <c r="S21" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="5"/>
@@ -2476,9 +4687,15 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="6"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="13">
+      <c r="AF21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="13">
         <v>88</v>
+      </c>
+      <c r="AI21" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="28"/>
@@ -2492,11 +4709,89 @@
       <c r="AS21" s="28"/>
       <c r="AT21" s="28"/>
       <c r="AU21" s="6"/>
+      <c r="AV21" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="13">
+        <v>123</v>
+      </c>
+      <c r="AY21" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ21" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="10"/>
+      <c r="BE21" s="10"/>
+      <c r="BF21" s="10"/>
+      <c r="BG21" s="10"/>
+      <c r="BH21" s="10"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="10"/>
+      <c r="BK21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL21" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM21" s="11"/>
+      <c r="BN21" s="13">
+        <v>158</v>
+      </c>
+      <c r="BO21" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP21" s="38"/>
+      <c r="BQ21" s="28"/>
+      <c r="BR21" s="28"/>
+      <c r="BS21" s="28"/>
+      <c r="BT21" s="28"/>
+      <c r="BU21" s="28"/>
+      <c r="BV21" s="28"/>
+      <c r="BW21" s="28"/>
+      <c r="BX21" s="28"/>
+      <c r="BY21" s="28"/>
+      <c r="BZ21" s="28"/>
+      <c r="CA21" s="33"/>
+      <c r="CB21" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC21" s="11"/>
+      <c r="CD21" s="13">
+        <v>193</v>
+      </c>
+      <c r="CE21" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF21" s="38"/>
+      <c r="CG21" s="28"/>
+      <c r="CH21" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="CI21" s="28"/>
+      <c r="CJ21" s="28"/>
+      <c r="CK21" s="28"/>
+      <c r="CL21" s="28"/>
+      <c r="CM21" s="28"/>
+      <c r="CN21" s="28"/>
+      <c r="CO21" s="28"/>
+      <c r="CP21" s="28"/>
+      <c r="CQ21" s="33"/>
+      <c r="CR21" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="22" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="12"/>
-      <c r="C22" s="14">
+    <row r="22" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="12"/>
+      <c r="B22" s="14">
         <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -2510,9 +4805,15 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="6"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="13">
+      <c r="P22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="13">
         <v>54</v>
+      </c>
+      <c r="S22" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T22" s="4"/>
       <c r="U22" s="5"/>
@@ -2526,9 +4827,15 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="6"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="13">
+      <c r="AF22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="13">
         <v>89</v>
+      </c>
+      <c r="AI22" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="28"/>
@@ -2542,11 +4849,87 @@
       <c r="AS22" s="28"/>
       <c r="AT22" s="28"/>
       <c r="AU22" s="6"/>
+      <c r="AV22" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="13">
+        <v>124</v>
+      </c>
+      <c r="AY22" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ22" s="38"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="28"/>
+      <c r="BD22" s="28"/>
+      <c r="BE22" s="28"/>
+      <c r="BF22" s="28"/>
+      <c r="BG22" s="28"/>
+      <c r="BH22" s="28"/>
+      <c r="BI22" s="28"/>
+      <c r="BJ22" s="28"/>
+      <c r="BK22" s="33"/>
+      <c r="BL22" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM22" s="11"/>
+      <c r="BN22" s="13">
+        <v>159</v>
+      </c>
+      <c r="BO22" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP22" s="38"/>
+      <c r="BQ22" s="28"/>
+      <c r="BR22" s="28"/>
+      <c r="BS22" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="BT22" s="28"/>
+      <c r="BU22" s="28"/>
+      <c r="BV22" s="28"/>
+      <c r="BW22" s="28"/>
+      <c r="BX22" s="28"/>
+      <c r="BY22" s="28"/>
+      <c r="BZ22" s="28"/>
+      <c r="CA22" s="33"/>
+      <c r="CB22" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC22" s="11"/>
+      <c r="CD22" s="13">
+        <v>194</v>
+      </c>
+      <c r="CE22" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF22" s="38"/>
+      <c r="CG22" s="28"/>
+      <c r="CH22" s="28"/>
+      <c r="CI22" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="CJ22" s="28"/>
+      <c r="CK22" s="28"/>
+      <c r="CL22" s="28"/>
+      <c r="CM22" s="28"/>
+      <c r="CN22" s="28"/>
+      <c r="CO22" s="28"/>
+      <c r="CP22" s="28"/>
+      <c r="CQ22" s="33"/>
+      <c r="CR22" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="23" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="12"/>
-      <c r="C23" s="14">
+    <row r="23" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14">
         <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -2560,9 +4943,15 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="6"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="13">
+      <c r="P23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="13">
         <v>55</v>
+      </c>
+      <c r="S23" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T23" s="4"/>
       <c r="U23" s="5" t="s">
@@ -2584,9 +4973,15 @@
       <c r="AE23" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="13">
+      <c r="AF23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="13">
         <v>90</v>
+      </c>
+      <c r="AI23" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="28"/>
@@ -2608,11 +5003,87 @@
       <c r="AS23" s="28"/>
       <c r="AT23" s="28"/>
       <c r="AU23" s="6"/>
+      <c r="AV23" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="13">
+        <v>125</v>
+      </c>
+      <c r="AY23" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="28"/>
+      <c r="BB23" s="28"/>
+      <c r="BC23" s="28"/>
+      <c r="BD23" s="28"/>
+      <c r="BE23" s="28"/>
+      <c r="BF23" s="28"/>
+      <c r="BG23" s="28"/>
+      <c r="BH23" s="28"/>
+      <c r="BI23" s="28"/>
+      <c r="BJ23" s="28"/>
+      <c r="BK23" s="33"/>
+      <c r="BL23" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM23" s="11"/>
+      <c r="BN23" s="13">
+        <v>160</v>
+      </c>
+      <c r="BO23" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP23" s="38"/>
+      <c r="BQ23" s="28"/>
+      <c r="BR23" s="28"/>
+      <c r="BS23" s="28"/>
+      <c r="BT23" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU23" s="28"/>
+      <c r="BV23" s="28"/>
+      <c r="BW23" s="28"/>
+      <c r="BX23" s="28"/>
+      <c r="BY23" s="28"/>
+      <c r="BZ23" s="28"/>
+      <c r="CA23" s="33"/>
+      <c r="CB23" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC23" s="11"/>
+      <c r="CD23" s="13">
+        <v>195</v>
+      </c>
+      <c r="CE23" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF23" s="38"/>
+      <c r="CG23" s="28"/>
+      <c r="CH23" s="28"/>
+      <c r="CI23" s="28"/>
+      <c r="CJ23" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="CK23" s="28"/>
+      <c r="CL23" s="28"/>
+      <c r="CM23" s="28"/>
+      <c r="CN23" s="28"/>
+      <c r="CO23" s="28"/>
+      <c r="CP23" s="28"/>
+      <c r="CQ23" s="33"/>
+      <c r="CR23" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="24" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="12"/>
-      <c r="C24" s="14">
+    <row r="24" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="12"/>
+      <c r="B24" s="14">
         <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2630,9 +5101,15 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="6"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="13">
+      <c r="P24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="13">
         <v>56</v>
+      </c>
+      <c r="S24" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T24" s="4"/>
       <c r="U24" s="5"/>
@@ -2646,9 +5123,15 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="6"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="13">
-        <v>91</v>
+      <c r="AF24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="13">
+        <v>91</v>
+      </c>
+      <c r="AI24" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ24" s="4" t="s">
         <v>40</v>
@@ -2670,11 +5153,87 @@
       <c r="AU24" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="AV24" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="13">
+        <v>126</v>
+      </c>
+      <c r="AY24" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ24" s="38"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
+      <c r="BD24" s="28"/>
+      <c r="BE24" s="28"/>
+      <c r="BF24" s="28"/>
+      <c r="BG24" s="28"/>
+      <c r="BH24" s="28"/>
+      <c r="BI24" s="28"/>
+      <c r="BJ24" s="28"/>
+      <c r="BK24" s="33"/>
+      <c r="BL24" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM24" s="11"/>
+      <c r="BN24" s="13">
+        <v>161</v>
+      </c>
+      <c r="BO24" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP24" s="38"/>
+      <c r="BQ24" s="28"/>
+      <c r="BR24" s="28"/>
+      <c r="BS24" s="28"/>
+      <c r="BT24" s="28"/>
+      <c r="BU24" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="BV24" s="28"/>
+      <c r="BW24" s="28"/>
+      <c r="BX24" s="28"/>
+      <c r="BY24" s="28"/>
+      <c r="BZ24" s="28"/>
+      <c r="CA24" s="33"/>
+      <c r="CB24" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC24" s="11"/>
+      <c r="CD24" s="13">
+        <v>196</v>
+      </c>
+      <c r="CE24" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF24" s="38"/>
+      <c r="CG24" s="28"/>
+      <c r="CH24" s="28"/>
+      <c r="CI24" s="28"/>
+      <c r="CJ24" s="28"/>
+      <c r="CK24" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="CL24" s="28"/>
+      <c r="CM24" s="28"/>
+      <c r="CN24" s="28"/>
+      <c r="CO24" s="28"/>
+      <c r="CP24" s="28"/>
+      <c r="CQ24" s="33"/>
+      <c r="CR24" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="25" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="12"/>
-      <c r="C25" s="14">
+    <row r="25" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14">
         <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -2688,9 +5247,15 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="6"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="13">
+      <c r="P25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="13">
         <v>57</v>
+      </c>
+      <c r="S25" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="5"/>
@@ -2704,8 +5269,14 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="6"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="13">
+      <c r="AF25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="13">
+        <v>92</v>
+      </c>
+      <c r="AI25" s="64" t="s">
         <v>92</v>
       </c>
       <c r="AJ25" s="4"/>
@@ -2720,11 +5291,99 @@
       <c r="AS25" s="28"/>
       <c r="AT25" s="28"/>
       <c r="AU25" s="6"/>
+      <c r="AV25" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="13">
+        <v>127</v>
+      </c>
+      <c r="AY25" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ25" s="38"/>
+      <c r="BA25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB25" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC25" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD25" s="28"/>
+      <c r="BE25" s="28"/>
+      <c r="BF25" s="28"/>
+      <c r="BG25" s="28"/>
+      <c r="BH25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI25" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ25" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK25" s="33"/>
+      <c r="BL25" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM25" s="11"/>
+      <c r="BN25" s="13">
+        <v>162</v>
+      </c>
+      <c r="BO25" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP25" s="38"/>
+      <c r="BQ25" s="28"/>
+      <c r="BR25" s="28"/>
+      <c r="BS25" s="28"/>
+      <c r="BT25" s="28"/>
+      <c r="BU25" s="28"/>
+      <c r="BV25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="BW25" s="28"/>
+      <c r="BX25" s="28"/>
+      <c r="BY25" s="28"/>
+      <c r="BZ25" s="28"/>
+      <c r="CA25" s="33"/>
+      <c r="CB25" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC25" s="11"/>
+      <c r="CD25" s="13">
+        <v>197</v>
+      </c>
+      <c r="CE25" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF25" s="38"/>
+      <c r="CG25" s="28"/>
+      <c r="CH25" s="28"/>
+      <c r="CI25" s="28"/>
+      <c r="CJ25" s="28"/>
+      <c r="CK25" s="28"/>
+      <c r="CL25" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="CM25" s="28"/>
+      <c r="CN25" s="28"/>
+      <c r="CO25" s="28"/>
+      <c r="CP25" s="28"/>
+      <c r="CQ25" s="33"/>
+      <c r="CR25" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="26" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="12"/>
-      <c r="C26" s="14">
+    <row r="26" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="12"/>
+      <c r="B26" s="14">
         <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -2738,9 +5397,15 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="6"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="13">
+      <c r="P26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="13">
         <v>58</v>
+      </c>
+      <c r="S26" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T26" s="4"/>
       <c r="U26" s="28"/>
@@ -2754,9 +5419,15 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="6"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="13">
+      <c r="AF26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="13">
         <v>93</v>
+      </c>
+      <c r="AI26" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ26" s="4"/>
       <c r="AK26" s="28"/>
@@ -2770,11 +5441,91 @@
       <c r="AS26" s="28"/>
       <c r="AT26" s="28"/>
       <c r="AU26" s="6"/>
+      <c r="AV26" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="13">
+        <v>128</v>
+      </c>
+      <c r="AY26" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ26" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="10"/>
+      <c r="BD26" s="10"/>
+      <c r="BE26" s="10"/>
+      <c r="BF26" s="10"/>
+      <c r="BG26" s="10"/>
+      <c r="BH26" s="10"/>
+      <c r="BI26" s="10"/>
+      <c r="BJ26" s="10"/>
+      <c r="BK26" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL26" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM26" s="11"/>
+      <c r="BN26" s="13">
+        <v>163</v>
+      </c>
+      <c r="BO26" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP26" s="38"/>
+      <c r="BQ26" s="28"/>
+      <c r="BR26" s="28"/>
+      <c r="BS26" s="28"/>
+      <c r="BT26" s="28"/>
+      <c r="BU26" s="28"/>
+      <c r="BV26" s="28"/>
+      <c r="BW26" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BX26" s="28"/>
+      <c r="BY26" s="28"/>
+      <c r="BZ26" s="28"/>
+      <c r="CA26" s="33"/>
+      <c r="CB26" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC26" s="11"/>
+      <c r="CD26" s="13">
+        <v>198</v>
+      </c>
+      <c r="CE26" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF26" s="38"/>
+      <c r="CG26" s="28"/>
+      <c r="CH26" s="28"/>
+      <c r="CI26" s="28"/>
+      <c r="CJ26" s="28"/>
+      <c r="CK26" s="28"/>
+      <c r="CL26" s="28"/>
+      <c r="CM26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="CN26" s="28"/>
+      <c r="CO26" s="28"/>
+      <c r="CP26" s="28"/>
+      <c r="CQ26" s="33"/>
+      <c r="CR26" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="27" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="12"/>
-      <c r="C27" s="14">
+    <row r="27" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14">
         <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -2788,9 +5539,15 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="6"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="13">
+      <c r="P27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="13">
         <v>59</v>
+      </c>
+      <c r="S27" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>25</v>
@@ -2809,9 +5566,15 @@
       <c r="AE27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="13">
+      <c r="AF27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="13">
         <v>94</v>
+      </c>
+      <c r="AI27" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="28"/>
@@ -2825,11 +5588,85 @@
       <c r="AS27" s="28"/>
       <c r="AT27" s="28"/>
       <c r="AU27" s="6"/>
+      <c r="AV27" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="13">
+        <v>129</v>
+      </c>
+      <c r="AY27" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="28"/>
+      <c r="BB27" s="28"/>
+      <c r="BC27" s="28"/>
+      <c r="BD27" s="28"/>
+      <c r="BE27" s="28"/>
+      <c r="BF27" s="28"/>
+      <c r="BG27" s="28"/>
+      <c r="BH27" s="28"/>
+      <c r="BI27" s="28"/>
+      <c r="BJ27" s="28"/>
+      <c r="BK27" s="33"/>
+      <c r="BL27" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM27" s="11"/>
+      <c r="BN27" s="13">
+        <v>164</v>
+      </c>
+      <c r="BO27" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP27" s="38"/>
+      <c r="BQ27" s="28"/>
+      <c r="BR27" s="28"/>
+      <c r="BS27" s="28"/>
+      <c r="BT27" s="28"/>
+      <c r="BU27" s="28"/>
+      <c r="BV27" s="28"/>
+      <c r="BW27" s="28"/>
+      <c r="BX27" s="28"/>
+      <c r="BY27" s="28"/>
+      <c r="BZ27" s="28"/>
+      <c r="CA27" s="33"/>
+      <c r="CB27" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC27" s="11"/>
+      <c r="CD27" s="13">
+        <v>199</v>
+      </c>
+      <c r="CE27" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF27" s="38"/>
+      <c r="CG27" s="28"/>
+      <c r="CH27" s="28"/>
+      <c r="CI27" s="28"/>
+      <c r="CJ27" s="28"/>
+      <c r="CK27" s="28"/>
+      <c r="CL27" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="CM27" s="28"/>
+      <c r="CN27" s="28"/>
+      <c r="CO27" s="28"/>
+      <c r="CP27" s="28"/>
+      <c r="CQ27" s="33"/>
+      <c r="CR27" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="28" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="12"/>
-      <c r="C28" s="14">
+    <row r="28" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="14">
         <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2843,9 +5680,15 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="6"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="13">
+      <c r="P28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="13">
         <v>60</v>
+      </c>
+      <c r="S28" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>25</v>
@@ -2866,9 +5709,15 @@
       <c r="AE28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="13">
+      <c r="AF28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="13">
         <v>95</v>
+      </c>
+      <c r="AI28" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="28"/>
@@ -2882,11 +5731,85 @@
       <c r="AS28" s="28"/>
       <c r="AT28" s="28"/>
       <c r="AU28" s="6"/>
+      <c r="AV28" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="13">
+        <v>130</v>
+      </c>
+      <c r="AY28" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="28"/>
+      <c r="BB28" s="28"/>
+      <c r="BC28" s="28"/>
+      <c r="BD28" s="28"/>
+      <c r="BE28" s="28"/>
+      <c r="BF28" s="28"/>
+      <c r="BG28" s="28"/>
+      <c r="BH28" s="28"/>
+      <c r="BI28" s="28"/>
+      <c r="BJ28" s="28"/>
+      <c r="BK28" s="33"/>
+      <c r="BL28" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM28" s="11"/>
+      <c r="BN28" s="13">
+        <v>165</v>
+      </c>
+      <c r="BO28" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP28" s="38"/>
+      <c r="BQ28" s="28"/>
+      <c r="BR28" s="28"/>
+      <c r="BS28" s="28"/>
+      <c r="BT28" s="28"/>
+      <c r="BU28" s="28"/>
+      <c r="BV28" s="28"/>
+      <c r="BW28" s="28"/>
+      <c r="BX28" s="28"/>
+      <c r="BY28" s="28"/>
+      <c r="BZ28" s="28"/>
+      <c r="CA28" s="33"/>
+      <c r="CB28" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC28" s="11"/>
+      <c r="CD28" s="13">
+        <v>200</v>
+      </c>
+      <c r="CE28" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF28" s="38"/>
+      <c r="CG28" s="28"/>
+      <c r="CH28" s="28"/>
+      <c r="CI28" s="28"/>
+      <c r="CJ28" s="28"/>
+      <c r="CK28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="CL28" s="28"/>
+      <c r="CM28" s="28"/>
+      <c r="CN28" s="28"/>
+      <c r="CO28" s="28"/>
+      <c r="CP28" s="28"/>
+      <c r="CQ28" s="33"/>
+      <c r="CR28" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="29" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="12"/>
-      <c r="C29" s="14">
+    <row r="29" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14">
         <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -2900,9 +5823,15 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="13">
+      <c r="P29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="13">
         <v>61</v>
+      </c>
+      <c r="S29" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>25</v>
@@ -2923,9 +5852,15 @@
       <c r="AE29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="13">
+      <c r="AF29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="13">
         <v>96</v>
+      </c>
+      <c r="AI29" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="28"/>
@@ -2939,11 +5874,89 @@
       <c r="AS29" s="28"/>
       <c r="AT29" s="28"/>
       <c r="AU29" s="6"/>
+      <c r="AV29" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="13">
+        <v>131</v>
+      </c>
+      <c r="AY29" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="28"/>
+      <c r="BB29" s="28"/>
+      <c r="BC29" s="28"/>
+      <c r="BD29" s="28"/>
+      <c r="BE29" s="28"/>
+      <c r="BF29" s="28"/>
+      <c r="BG29" s="28"/>
+      <c r="BH29" s="28"/>
+      <c r="BI29" s="28"/>
+      <c r="BJ29" s="28"/>
+      <c r="BK29" s="33"/>
+      <c r="BL29" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM29" s="11"/>
+      <c r="BN29" s="13">
+        <v>166</v>
+      </c>
+      <c r="BO29" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP29" s="38"/>
+      <c r="BQ29" s="28"/>
+      <c r="BR29" s="28"/>
+      <c r="BS29" s="28"/>
+      <c r="BT29" s="28"/>
+      <c r="BU29" s="28"/>
+      <c r="BV29" s="28"/>
+      <c r="BW29" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="BX29" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY29" s="28"/>
+      <c r="BZ29" s="28"/>
+      <c r="CA29" s="33"/>
+      <c r="CB29" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC29" s="11"/>
+      <c r="CD29" s="13">
+        <v>201</v>
+      </c>
+      <c r="CE29" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF29" s="38"/>
+      <c r="CG29" s="28"/>
+      <c r="CH29" s="28"/>
+      <c r="CI29" s="28"/>
+      <c r="CJ29" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="CK29" s="28"/>
+      <c r="CL29" s="28"/>
+      <c r="CM29" s="28"/>
+      <c r="CN29" s="28"/>
+      <c r="CO29" s="28"/>
+      <c r="CP29" s="28"/>
+      <c r="CQ29" s="33"/>
+      <c r="CR29" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="30" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="12"/>
-      <c r="C30" s="14">
+    <row r="30" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14">
         <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -2957,9 +5970,15 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="13">
+      <c r="P30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="13">
         <v>62</v>
+      </c>
+      <c r="S30" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>25</v>
@@ -2980,9 +5999,15 @@
       <c r="AE30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="13">
+      <c r="AF30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="13">
         <v>97</v>
+      </c>
+      <c r="AI30" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="28"/>
@@ -2996,11 +6021,93 @@
       <c r="AS30" s="28"/>
       <c r="AT30" s="28"/>
       <c r="AU30" s="6"/>
+      <c r="AV30" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="13">
+        <v>132</v>
+      </c>
+      <c r="AY30" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ30" s="38"/>
+      <c r="BA30" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB30" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC30" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD30" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE30" s="28"/>
+      <c r="BF30" s="28"/>
+      <c r="BG30" s="28"/>
+      <c r="BH30" s="28"/>
+      <c r="BI30" s="28"/>
+      <c r="BJ30" s="28"/>
+      <c r="BK30" s="33"/>
+      <c r="BL30" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM30" s="11"/>
+      <c r="BN30" s="13">
+        <v>167</v>
+      </c>
+      <c r="BO30" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP30" s="38"/>
+      <c r="BQ30" s="28"/>
+      <c r="BR30" s="28"/>
+      <c r="BS30" s="28"/>
+      <c r="BT30" s="28"/>
+      <c r="BU30" s="28"/>
+      <c r="BV30" s="28"/>
+      <c r="BW30" s="28"/>
+      <c r="BX30" s="28"/>
+      <c r="BY30" s="28"/>
+      <c r="BZ30" s="28"/>
+      <c r="CA30" s="33"/>
+      <c r="CB30" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC30" s="11"/>
+      <c r="CD30" s="13">
+        <v>202</v>
+      </c>
+      <c r="CE30" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF30" s="38"/>
+      <c r="CG30" s="28"/>
+      <c r="CH30" s="28"/>
+      <c r="CI30" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="CJ30" s="28"/>
+      <c r="CK30" s="28"/>
+      <c r="CL30" s="28"/>
+      <c r="CM30" s="28"/>
+      <c r="CN30" s="28"/>
+      <c r="CO30" s="28"/>
+      <c r="CP30" s="28"/>
+      <c r="CQ30" s="33"/>
+      <c r="CR30" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="31" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="12"/>
-      <c r="C31" s="14">
+    <row r="31" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="12"/>
+      <c r="B31" s="14">
         <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>8</v>
@@ -3018,9 +6125,15 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="6"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="13">
+      <c r="P31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="13">
         <v>63</v>
+      </c>
+      <c r="S31" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>25</v>
@@ -3041,9 +6154,15 @@
       <c r="AE31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="13">
+      <c r="AF31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="13">
         <v>98</v>
+      </c>
+      <c r="AI31" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ31" s="4"/>
       <c r="AK31" s="28"/>
@@ -3051,17 +6170,105 @@
       <c r="AM31" s="28"/>
       <c r="AN31" s="28"/>
       <c r="AO31" s="28"/>
-      <c r="AP31" s="28"/>
-      <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="28"/>
+      <c r="AP31" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR31" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT31" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="AU31" s="6"/>
+      <c r="AV31" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="13">
+        <v>133</v>
+      </c>
+      <c r="AY31" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ31" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA31" s="10"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="10"/>
+      <c r="BD31" s="10"/>
+      <c r="BE31" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF31" s="28"/>
+      <c r="BG31" s="28"/>
+      <c r="BH31" s="28"/>
+      <c r="BI31" s="28"/>
+      <c r="BJ31" s="28"/>
+      <c r="BK31" s="33"/>
+      <c r="BL31" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM31" s="11"/>
+      <c r="BN31" s="13">
+        <v>168</v>
+      </c>
+      <c r="BO31" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP31" s="38"/>
+      <c r="BQ31" s="28"/>
+      <c r="BR31" s="28"/>
+      <c r="BS31" s="28"/>
+      <c r="BT31" s="28"/>
+      <c r="BU31" s="28"/>
+      <c r="BV31" s="28"/>
+      <c r="BW31" s="28"/>
+      <c r="BX31" s="28"/>
+      <c r="BY31" s="28"/>
+      <c r="BZ31" s="28"/>
+      <c r="CA31" s="33"/>
+      <c r="CB31" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC31" s="11"/>
+      <c r="CD31" s="13">
+        <v>203</v>
+      </c>
+      <c r="CE31" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF31" s="38"/>
+      <c r="CG31" s="28"/>
+      <c r="CH31" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="CI31" s="28"/>
+      <c r="CJ31" s="28"/>
+      <c r="CK31" s="28"/>
+      <c r="CL31" s="28"/>
+      <c r="CM31" s="28"/>
+      <c r="CN31" s="28"/>
+      <c r="CO31" s="28"/>
+      <c r="CP31" s="28"/>
+      <c r="CQ31" s="33"/>
+      <c r="CR31" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="32" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="12"/>
-      <c r="C32" s="14">
+    <row r="32" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="12"/>
+      <c r="B32" s="14">
         <v>29</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -3075,9 +6282,15 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="6"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="13">
+      <c r="P32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="13">
         <v>64</v>
+      </c>
+      <c r="S32" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>25</v>
@@ -3098,27 +6311,113 @@
       <c r="AE32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="13">
+      <c r="AF32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="13">
         <v>99</v>
       </c>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="28"/>
-      <c r="AR32" s="28"/>
-      <c r="AS32" s="28"/>
-      <c r="AT32" s="28"/>
-      <c r="AU32" s="6"/>
+      <c r="AI32" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV32" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="13">
+        <v>134</v>
+      </c>
+      <c r="AY32" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ32" s="38"/>
+      <c r="BA32" s="28"/>
+      <c r="BB32" s="28"/>
+      <c r="BC32" s="28"/>
+      <c r="BD32" s="28"/>
+      <c r="BE32" s="28"/>
+      <c r="BF32" s="28"/>
+      <c r="BG32" s="28"/>
+      <c r="BH32" s="28"/>
+      <c r="BI32" s="28"/>
+      <c r="BJ32" s="28"/>
+      <c r="BK32" s="33"/>
+      <c r="BL32" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM32" s="11"/>
+      <c r="BN32" s="13">
+        <v>169</v>
+      </c>
+      <c r="BO32" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP32" s="38"/>
+      <c r="BQ32" s="28"/>
+      <c r="BR32" s="28"/>
+      <c r="BS32" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU32" s="28"/>
+      <c r="BV32" s="28"/>
+      <c r="BW32" s="28"/>
+      <c r="BX32" s="28"/>
+      <c r="BY32" s="28"/>
+      <c r="BZ32" s="28"/>
+      <c r="CA32" s="33"/>
+      <c r="CB32" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC32" s="11"/>
+      <c r="CD32" s="13">
+        <v>204</v>
+      </c>
+      <c r="CE32" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF32" s="38"/>
+      <c r="CG32" s="28"/>
+      <c r="CH32" s="28"/>
+      <c r="CI32" s="28"/>
+      <c r="CJ32" s="28"/>
+      <c r="CK32" s="28"/>
+      <c r="CL32" s="28"/>
+      <c r="CM32" s="28"/>
+      <c r="CN32" s="28"/>
+      <c r="CO32" s="28"/>
+      <c r="CP32" s="28"/>
+      <c r="CQ32" s="33"/>
+      <c r="CR32" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="33" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="12"/>
-      <c r="C33" s="14">
+    <row r="33" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14">
         <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -3132,9 +6431,15 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="6"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="13">
+      <c r="P33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="13">
         <v>65</v>
+      </c>
+      <c r="S33" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>25</v>
@@ -3155,9 +6460,15 @@
       <c r="AE33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="13">
+      <c r="AF33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="35">
         <v>100</v>
+      </c>
+      <c r="AI33" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="28"/>
@@ -3171,11 +6482,76 @@
       <c r="AS33" s="28"/>
       <c r="AT33" s="28"/>
       <c r="AU33" s="6"/>
+      <c r="AV33" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="13">
+        <v>135</v>
+      </c>
+      <c r="AY33" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ33" s="38"/>
+      <c r="BA33" s="28"/>
+      <c r="BB33" s="28"/>
+      <c r="BC33" s="28"/>
+      <c r="BD33" s="28"/>
+      <c r="BE33" s="28"/>
+      <c r="BF33" s="28"/>
+      <c r="BG33" s="28"/>
+      <c r="BH33" s="28"/>
+      <c r="BI33" s="28"/>
+      <c r="BJ33" s="28"/>
+      <c r="BK33" s="33"/>
+      <c r="BL33" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM33" s="11"/>
+      <c r="BN33" s="13">
+        <v>170</v>
+      </c>
+      <c r="BO33" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP33" s="38"/>
+      <c r="BQ33" s="28"/>
+      <c r="BR33" s="28"/>
+      <c r="BS33" s="28"/>
+      <c r="BT33" s="28"/>
+      <c r="BU33" s="28"/>
+      <c r="BV33" s="28"/>
+      <c r="BW33" s="28"/>
+      <c r="BX33" s="28"/>
+      <c r="BY33" s="28"/>
+      <c r="BZ33" s="28"/>
+      <c r="CA33" s="33"/>
+      <c r="CB33" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC33" s="11"/>
+      <c r="CD33" s="13">
+        <v>205</v>
+      </c>
+      <c r="CE33" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF33" s="38"/>
+      <c r="CN33" s="28"/>
+      <c r="CO33" s="28"/>
+      <c r="CP33" s="28"/>
+      <c r="CQ33" s="33"/>
+      <c r="CR33" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="34" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="12"/>
-      <c r="C34" s="14">
+    <row r="34" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="12"/>
+      <c r="B34" s="14">
         <v>31</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="28"/>
@@ -3189,9 +6565,15 @@
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
       <c r="O34" s="6"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="13">
+      <c r="P34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="13">
         <v>66</v>
+      </c>
+      <c r="S34" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="28"/>
@@ -3205,9 +6587,15 @@
       <c r="AC34" s="28"/>
       <c r="AD34" s="28"/>
       <c r="AE34" s="6"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="13">
+      <c r="AF34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="13">
         <v>101</v>
+      </c>
+      <c r="AI34" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="28"/>
@@ -3221,11 +6609,84 @@
       <c r="AS34" s="28"/>
       <c r="AT34" s="28"/>
       <c r="AU34" s="6"/>
+      <c r="AV34" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="13">
+        <v>136</v>
+      </c>
+      <c r="AY34" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="28"/>
+      <c r="BB34" s="28"/>
+      <c r="BC34" s="28"/>
+      <c r="BD34" s="28"/>
+      <c r="BE34" s="28"/>
+      <c r="BF34" s="28"/>
+      <c r="BG34" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH34" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI34" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ34" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK34" s="33"/>
+      <c r="BL34" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM34" s="11"/>
+      <c r="BN34" s="13">
+        <v>171</v>
+      </c>
+      <c r="BO34" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP34" s="38"/>
+      <c r="BQ34" s="28"/>
+      <c r="BR34" s="28"/>
+      <c r="BS34" s="28"/>
+      <c r="BT34" s="28"/>
+      <c r="BU34" s="28"/>
+      <c r="BV34" s="28"/>
+      <c r="BW34" s="28"/>
+      <c r="BX34" s="28"/>
+      <c r="BY34" s="28"/>
+      <c r="BZ34" s="28"/>
+      <c r="CA34" s="33"/>
+      <c r="CB34" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC34" s="11"/>
+      <c r="CD34" s="13">
+        <v>206</v>
+      </c>
+      <c r="CE34" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF34" s="38"/>
+      <c r="CN34" s="28"/>
+      <c r="CO34" s="28"/>
+      <c r="CP34" s="28"/>
+      <c r="CQ34" s="33"/>
+      <c r="CR34" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="35" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="12"/>
-      <c r="C35" s="14">
+    <row r="35" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="12"/>
+      <c r="B35" s="14">
         <v>32</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -3239,9 +6700,15 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="6"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="13">
+      <c r="P35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="13">
         <v>67</v>
+      </c>
+      <c r="S35" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T35" s="4"/>
       <c r="U35" s="5"/>
@@ -3255,9 +6722,15 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="6"/>
-      <c r="AH35" s="11"/>
-      <c r="AI35" s="35">
+      <c r="AF35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="35">
         <v>102</v>
+      </c>
+      <c r="AI35" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ35" s="4"/>
       <c r="AK35" s="28"/>
@@ -3271,11 +6744,91 @@
       <c r="AS35" s="28"/>
       <c r="AT35" s="28"/>
       <c r="AU35" s="6"/>
+      <c r="AV35" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="13">
+        <v>137</v>
+      </c>
+      <c r="AY35" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ35" s="38"/>
+      <c r="BA35" s="28"/>
+      <c r="BB35" s="28"/>
+      <c r="BC35" s="28"/>
+      <c r="BD35" s="28"/>
+      <c r="BE35" s="28"/>
+      <c r="BF35" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG35" s="10"/>
+      <c r="BH35" s="10"/>
+      <c r="BI35" s="10"/>
+      <c r="BJ35" s="10"/>
+      <c r="BK35" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL35" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM35" s="11"/>
+      <c r="BN35" s="13">
+        <v>172</v>
+      </c>
+      <c r="BO35" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP35" s="38"/>
+      <c r="BQ35" s="28"/>
+      <c r="BR35" s="28"/>
+      <c r="BS35" s="28"/>
+      <c r="BT35" s="28"/>
+      <c r="BU35" s="28"/>
+      <c r="BV35" s="28"/>
+      <c r="BW35" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BX35" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="BY35" s="28"/>
+      <c r="BZ35" s="28"/>
+      <c r="CA35" s="33"/>
+      <c r="CB35" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC35" s="11"/>
+      <c r="CD35" s="13">
+        <v>207</v>
+      </c>
+      <c r="CE35" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF35" s="38"/>
+      <c r="CG35" s="28"/>
+      <c r="CH35" s="28"/>
+      <c r="CI35" s="28"/>
+      <c r="CJ35" s="28"/>
+      <c r="CK35" s="28"/>
+      <c r="CL35" s="28"/>
+      <c r="CM35" s="28"/>
+      <c r="CN35" s="28"/>
+      <c r="CO35" s="28"/>
+      <c r="CP35" s="28"/>
+      <c r="CQ35" s="33"/>
+      <c r="CR35" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="36" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="12"/>
-      <c r="C36" s="14">
+    <row r="36" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="12"/>
+      <c r="B36" s="14">
         <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -3289,9 +6842,15 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="6"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="13">
+      <c r="P36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="13">
         <v>68</v>
+      </c>
+      <c r="S36" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T36" s="4"/>
       <c r="U36" s="5"/>
@@ -3305,9 +6864,15 @@
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="6"/>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="13">
+      <c r="AF36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="13">
         <v>103</v>
+      </c>
+      <c r="AI36" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="28"/>
@@ -3321,11 +6886,85 @@
       <c r="AS36" s="28"/>
       <c r="AT36" s="28"/>
       <c r="AU36" s="6"/>
+      <c r="AV36" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="13">
+        <v>138</v>
+      </c>
+      <c r="AY36" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ36" s="38"/>
+      <c r="BA36" s="28"/>
+      <c r="BB36" s="28"/>
+      <c r="BC36" s="28"/>
+      <c r="BD36" s="28"/>
+      <c r="BE36" s="28"/>
+      <c r="BF36" s="28"/>
+      <c r="BG36" s="28"/>
+      <c r="BH36" s="28"/>
+      <c r="BI36" s="28"/>
+      <c r="BJ36" s="28"/>
+      <c r="BK36" s="33"/>
+      <c r="BL36" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM36" s="11"/>
+      <c r="BN36" s="13">
+        <v>173</v>
+      </c>
+      <c r="BO36" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP36" s="38"/>
+      <c r="BQ36" s="28"/>
+      <c r="BR36" s="28"/>
+      <c r="BS36" s="28"/>
+      <c r="BT36" s="28"/>
+      <c r="BU36" s="28"/>
+      <c r="BV36" s="28"/>
+      <c r="BW36" s="28"/>
+      <c r="BX36" s="28"/>
+      <c r="BY36" s="28"/>
+      <c r="BZ36" s="28"/>
+      <c r="CA36" s="33"/>
+      <c r="CB36" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC36" s="11"/>
+      <c r="CD36" s="13">
+        <v>208</v>
+      </c>
+      <c r="CE36" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF36" s="38"/>
+      <c r="CG36" s="28"/>
+      <c r="CH36" s="28"/>
+      <c r="CI36" s="28"/>
+      <c r="CJ36" s="28"/>
+      <c r="CK36" s="28"/>
+      <c r="CL36" s="28"/>
+      <c r="CM36" s="28"/>
+      <c r="CN36" s="28"/>
+      <c r="CO36" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="CP36" s="28"/>
+      <c r="CQ36" s="33"/>
+      <c r="CR36" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="37" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="12"/>
-      <c r="C37" s="14">
+    <row r="37" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="12"/>
+      <c r="B37" s="14">
         <v>34</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
@@ -3339,9 +6978,15 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="6"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="13">
+      <c r="P37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="13">
         <v>69</v>
+      </c>
+      <c r="S37" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="5"/>
@@ -3355,9 +7000,15 @@
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
       <c r="AE37" s="6"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="13">
+      <c r="AF37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="13">
         <v>104</v>
+      </c>
+      <c r="AI37" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="28"/>
@@ -3371,11 +7022,83 @@
       <c r="AS37" s="28"/>
       <c r="AT37" s="28"/>
       <c r="AU37" s="6"/>
+      <c r="AV37" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="13">
+        <v>139</v>
+      </c>
+      <c r="AY37" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="28"/>
+      <c r="BB37" s="28"/>
+      <c r="BC37" s="28"/>
+      <c r="BD37" s="28"/>
+      <c r="BE37" s="28"/>
+      <c r="BF37" s="28"/>
+      <c r="BG37" s="28"/>
+      <c r="BH37" s="28"/>
+      <c r="BI37" s="28"/>
+      <c r="BJ37" s="28"/>
+      <c r="BK37" s="6"/>
+      <c r="BL37" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM37" s="11"/>
+      <c r="BN37" s="13">
+        <v>174</v>
+      </c>
+      <c r="BO37" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP37" s="38"/>
+      <c r="BQ37" s="28"/>
+      <c r="BR37" s="28"/>
+      <c r="BS37" s="28"/>
+      <c r="BT37" s="28"/>
+      <c r="BU37" s="28"/>
+      <c r="BV37" s="28"/>
+      <c r="BW37" s="28"/>
+      <c r="BX37" s="28"/>
+      <c r="BY37" s="28"/>
+      <c r="BZ37" s="28"/>
+      <c r="CA37" s="33"/>
+      <c r="CB37" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC37" s="11"/>
+      <c r="CD37" s="13">
+        <v>209</v>
+      </c>
+      <c r="CE37" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF37" s="38"/>
+      <c r="CG37" s="28"/>
+      <c r="CH37" s="28"/>
+      <c r="CI37" s="28"/>
+      <c r="CJ37" s="28"/>
+      <c r="CK37" s="28"/>
+      <c r="CL37" s="28"/>
+      <c r="CM37" s="28"/>
+      <c r="CN37" s="28"/>
+      <c r="CO37" s="28"/>
+      <c r="CP37" s="28"/>
+      <c r="CQ37" s="33"/>
+      <c r="CR37" s="64" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="38" spans="2:47" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="30"/>
-      <c r="C38" s="31">
+    <row r="38" spans="1:96" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31">
         <v>35</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
@@ -3393,9 +7116,15 @@
       <c r="O38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="11"/>
-      <c r="S38" s="13">
+      <c r="P38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="13">
         <v>70</v>
+      </c>
+      <c r="S38" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="T38" s="7"/>
       <c r="U38" s="8"/>
@@ -3409,9 +7138,15 @@
       <c r="AC38" s="34"/>
       <c r="AD38" s="34"/>
       <c r="AE38" s="9"/>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="13">
+      <c r="AF38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="13">
         <v>105</v>
+      </c>
+      <c r="AI38" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="AJ38" s="7"/>
       <c r="AK38" s="8"/>
@@ -3425,12 +7160,92 @@
       <c r="AS38" s="34"/>
       <c r="AT38" s="34"/>
       <c r="AU38" s="9"/>
+      <c r="AV38" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="13">
+        <v>140</v>
+      </c>
+      <c r="AY38" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ38" s="7"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="8"/>
+      <c r="BC38" s="8"/>
+      <c r="BD38" s="34"/>
+      <c r="BE38" s="34"/>
+      <c r="BF38" s="34"/>
+      <c r="BG38" s="34"/>
+      <c r="BH38" s="34"/>
+      <c r="BI38" s="34"/>
+      <c r="BJ38" s="34"/>
+      <c r="BK38" s="9"/>
+      <c r="BL38" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM38" s="11"/>
+      <c r="BN38" s="13">
+        <v>175</v>
+      </c>
+      <c r="BO38" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP38" s="53"/>
+      <c r="BQ38" s="34"/>
+      <c r="BR38" s="34"/>
+      <c r="BS38" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="BT38" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU38" s="34"/>
+      <c r="BV38" s="34"/>
+      <c r="BW38" s="34"/>
+      <c r="BX38" s="34"/>
+      <c r="BY38" s="34"/>
+      <c r="BZ38" s="34"/>
+      <c r="CA38" s="54"/>
+      <c r="CB38" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="CC38" s="11"/>
+      <c r="CD38" s="13">
+        <v>210</v>
+      </c>
+      <c r="CE38" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF38" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="CG38" s="49"/>
+      <c r="CH38" s="49"/>
+      <c r="CI38" s="49"/>
+      <c r="CJ38" s="49"/>
+      <c r="CK38" s="49"/>
+      <c r="CL38" s="49"/>
+      <c r="CM38" s="49"/>
+      <c r="CN38" s="49"/>
+      <c r="CO38" s="49"/>
+      <c r="CP38" s="49"/>
+      <c r="CQ38" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="CR38" s="24" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.45">
       <c r="W39" s="5"/>
       <c r="AM39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BS39" s="5"/>
+      <c r="CI39" s="5"/>
     </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.45">
       <c r="AF48" s="5"/>
     </row>
     <row r="49" spans="32:32" x14ac:dyDescent="0.45">
@@ -3459,8 +7274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3557,10 +7372,16 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="43"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="45"/>
+    <row r="6" spans="2:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="B6" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>86</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -3570,10 +7391,16 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="43"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="45"/>
+    <row r="7" spans="2:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="B7" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>87</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -3583,10 +7410,16 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="43"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="45"/>
+    <row r="8" spans="2:12" ht="108" x14ac:dyDescent="0.45">
+      <c r="B8" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>85</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -3597,9 +7430,15 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="43"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>84</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -3609,10 +7448,16 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="43"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="45"/>
+    <row r="10" spans="2:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="B10" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>95</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
